--- a/result/NCDC_weather_data/stations_imputed/50564099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/50564099999.xlsx
@@ -569,7 +569,9 @@
       <c r="M2" t="n">
         <v>2.880864</v>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>8.275799186440677</v>
+      </c>
       <c r="O2" t="n">
         <v>21.92</v>
       </c>
@@ -579,7 +581,9 @@
       <c r="Q2" t="n">
         <v>0.000762</v>
       </c>
-      <c r="R2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>0.08309690751445085</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -637,7 +641,9 @@
       <c r="Q3" t="n">
         <v>0.000508</v>
       </c>
-      <c r="R3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>0.08309690751445085</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -695,7 +701,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>0.08309690751445085</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -753,7 +761,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
-      <c r="R5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>0.08309690751445085</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -811,7 +821,9 @@
       <c r="Q6" t="n">
         <v>0.000508</v>
       </c>
-      <c r="R6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0.08309690751445085</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -869,7 +881,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
-      <c r="R7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>0.08309690751445085</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -927,7 +941,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
-      <c r="R8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0.08309690751445085</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -985,7 +1001,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
-      <c r="R9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>0.08309690751445085</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1043,7 +1061,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
-      <c r="R10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>0.08309690751445085</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1101,7 +1121,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
-      <c r="R11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>0.08309690751445085</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1159,7 +1181,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
-      <c r="R12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>0.08309690751445085</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1217,7 +1241,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
-      <c r="R13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>0.08309690751445085</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1275,7 +1301,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>0.08309690751445085</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1333,7 +1361,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
-      <c r="R15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>0.08309690751445085</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1391,7 +1421,9 @@
       <c r="Q16" t="n">
         <v>0.00381</v>
       </c>
-      <c r="R16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>0.08309690751445085</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1449,7 +1481,9 @@
       <c r="Q17" t="n">
         <v>0.00127</v>
       </c>
-      <c r="R17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>0.08309690751445085</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1507,7 +1541,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
-      <c r="R18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0.08309690751445085</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
